--- a/src/main/resources/excel/norm.xlsx
+++ b/src/main/resources/excel/norm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikita/Desktop/Аспирантура/Макс/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikita/IdeaProjects/derivative_toy/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3BB176-C14B-3744-A15D-A9F8F2D534CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1154FA-EA0B-0D49-B19A-A28622A4E901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{941178B5-9F44-9F4C-9A43-84C40BB91F3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{941178B5-9F44-9F4C-9A43-84C40BB91F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" s="9">
         <v>0.5</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="9">
         <v>0.5</v>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9">
         <v>0.7</v>
@@ -1321,7 +1321,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I2" s="18">
         <f>Лист1!I2/Лист1!I$13</f>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="18">
         <f>Лист1!J2/Лист1!J$13</f>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I3" s="18">
         <f>Лист1!I3/Лист1!I$13</f>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="18">
         <f>Лист1!J3/Лист1!J$13</f>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I4" s="18">
         <f>Лист1!I4/Лист1!I$13</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J4" s="18">
         <f>Лист1!J4/Лист1!J$13</f>
